--- a/Blog1_Time_Series_Forecast_DAX/Data/Data.xlsx
+++ b/Blog1_Time_Series_Forecast_DAX/Data/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuanl\Documents\Sparkhound\Power BI Blog\Blog 1_Forecast Using DAX\Data Prep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lechen.yuan\Repos\BlogContents\BlogContents\Blog1_Time_Series_Forecast_DAX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34250BE-B8EB-4A7C-8041-C89B8CC14131}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DD685F-7FD7-4652-9FBF-0C2BA7B99C80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7830" yWindow="600" windowWidth="12540" windowHeight="11775" activeTab="1" xr2:uid="{0D9D2B75-A982-4B3E-A2BC-06AD87B6215E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0D9D2B75-A982-4B3E-A2BC-06AD87B6215E}"/>
   </bookViews>
   <sheets>
     <sheet name="Fact Sales" sheetId="1" r:id="rId1"/>
@@ -6283,10 +6283,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EB6BD4-39B4-4C91-87EA-731C0DD3B8CE}">
-  <dimension ref="A1:A733"/>
+  <dimension ref="A1:A762"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A741" workbookViewId="0">
+      <selection activeCell="A733" sqref="A733:A762"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9956,6 +9956,151 @@
         <v>43983</v>
       </c>
     </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A734" s="1">
+        <v>43984</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A735" s="1">
+        <v>43985</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A736" s="1">
+        <v>43986</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A737" s="1">
+        <v>43987</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A738" s="1">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A739" s="1">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A740" s="1">
+        <v>43990</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A741" s="1">
+        <v>43991</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A742" s="1">
+        <v>43992</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A743" s="1">
+        <v>43993</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A744" s="1">
+        <v>43994</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A745" s="1">
+        <v>43995</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A746" s="1">
+        <v>43996</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A747" s="1">
+        <v>43997</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A748" s="1">
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A749" s="1">
+        <v>43999</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A750" s="1">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A751" s="1">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A752" s="1">
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A753" s="1">
+        <v>44003</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A754" s="1">
+        <v>44004</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A755" s="1">
+        <v>44005</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A756" s="1">
+        <v>44006</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A757" s="1">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A758" s="1">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A759" s="1">
+        <v>44009</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A760" s="1">
+        <v>44010</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A761" s="1">
+        <v>44011</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A762" s="1">
+        <v>44012</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
